--- a/2023/chile_primera-division_2023.xlsx
+++ b/2023/chile_primera-division_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V182"/>
+  <dimension ref="A1:V183"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17201,6 +17201,98 @@
         </is>
       </c>
     </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>chile</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>primera-division</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E183" s="2" t="n">
+        <v>45192.0625</v>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="G183" t="n">
+        <v>2</v>
+      </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>O'Higgins</t>
+        </is>
+      </c>
+      <c r="I183" t="n">
+        <v>1</v>
+      </c>
+      <c r="J183" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>15/09/2023 00:42</t>
+        </is>
+      </c>
+      <c r="L183" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="M183" t="inlineStr">
+        <is>
+          <t>23/09/2023 01:28</t>
+        </is>
+      </c>
+      <c r="N183" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="O183" t="inlineStr">
+        <is>
+          <t>15/09/2023 00:42</t>
+        </is>
+      </c>
+      <c r="P183" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="Q183" t="inlineStr">
+        <is>
+          <t>23/09/2023 01:21</t>
+        </is>
+      </c>
+      <c r="R183" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="S183" t="inlineStr">
+        <is>
+          <t>15/09/2023 00:42</t>
+        </is>
+      </c>
+      <c r="T183" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="U183" t="inlineStr">
+        <is>
+          <t>23/09/2023 01:28</t>
+        </is>
+      </c>
+      <c r="V183" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/chile/primera-division/coquimbo-o-higgins/2odx4xQl/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/chile_primera-division_2023.xlsx
+++ b/2023/chile_primera-division_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V183"/>
+  <dimension ref="A1:V188"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2781,71 +2781,71 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Union La Calera</t>
+          <t>Copiapo</t>
         </is>
       </c>
       <c r="G26" t="n">
+        <v>1</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Palestino</t>
+        </is>
+      </c>
+      <c r="I26" t="n">
         <v>3</v>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>Curico Unido</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
-        <v>2</v>
-      </c>
       <c r="J26" t="n">
-        <v>2.34</v>
+        <v>3.43</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>04/02/2023 22:12</t>
+          <t>06/02/2023 00:42</t>
         </is>
       </c>
       <c r="L26" t="n">
-        <v>2.04</v>
+        <v>3.18</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>11/02/2023 00:57</t>
+          <t>11/02/2023 00:53</t>
         </is>
       </c>
       <c r="N26" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>06/02/2023 00:42</t>
+        </is>
+      </c>
+      <c r="P26" t="n">
         <v>3.62</v>
       </c>
-      <c r="O26" t="inlineStr">
-        <is>
-          <t>04/02/2023 22:12</t>
-        </is>
-      </c>
-      <c r="P26" t="n">
-        <v>3.42</v>
-      </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>11/02/2023 00:58</t>
+          <t>11/02/2023 00:53</t>
         </is>
       </c>
       <c r="R26" t="n">
-        <v>3.03</v>
+        <v>1.94</v>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>04/02/2023 22:12</t>
+          <t>06/02/2023 00:42</t>
         </is>
       </c>
       <c r="T26" t="n">
-        <v>3.99</v>
+        <v>2.26</v>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>11/02/2023 00:57</t>
+          <t>11/02/2023 00:53</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/chile/primera-division/union-la-calera-curico-unido/4Mz9Ngnb/</t>
+          <t>https://www.betexplorer.com/football/chile/primera-division/copiapo-palestino/WGWP0Wvo/</t>
         </is>
       </c>
     </row>
@@ -2873,71 +2873,71 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Copiapo</t>
+          <t>Union La Calera</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Palestino</t>
+          <t>Curico Unido</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J27" t="n">
-        <v>3.43</v>
+        <v>2.34</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>06/02/2023 00:42</t>
+          <t>04/02/2023 22:12</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>3.18</v>
+        <v>2.04</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>11/02/2023 00:53</t>
+          <t>11/02/2023 00:57</t>
         </is>
       </c>
       <c r="N27" t="n">
-        <v>3.91</v>
+        <v>3.62</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>06/02/2023 00:42</t>
+          <t>04/02/2023 22:12</t>
         </is>
       </c>
       <c r="P27" t="n">
-        <v>3.62</v>
+        <v>3.42</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>11/02/2023 00:53</t>
+          <t>11/02/2023 00:58</t>
         </is>
       </c>
       <c r="R27" t="n">
-        <v>1.94</v>
+        <v>3.03</v>
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>06/02/2023 00:42</t>
+          <t>04/02/2023 22:12</t>
         </is>
       </c>
       <c r="T27" t="n">
-        <v>2.26</v>
+        <v>3.99</v>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>11/02/2023 00:53</t>
+          <t>11/02/2023 00:57</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/chile/primera-division/copiapo-palestino/WGWP0Wvo/</t>
+          <t>https://www.betexplorer.com/football/chile/primera-division/union-la-calera-curico-unido/4Mz9Ngnb/</t>
         </is>
       </c>
     </row>
@@ -4529,71 +4529,71 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Everton</t>
+          <t>Copiapo</t>
         </is>
       </c>
       <c r="G45" t="n">
+        <v>2</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>O'Higgins</t>
+        </is>
+      </c>
+      <c r="I45" t="n">
+        <v>2</v>
+      </c>
+      <c r="J45" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>20/02/2023 16:42</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>28/02/2023 00:05</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>20/02/2023 16:42</t>
+        </is>
+      </c>
+      <c r="P45" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>28/02/2023 00:11</t>
+        </is>
+      </c>
+      <c r="R45" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>20/02/2023 16:42</t>
+        </is>
+      </c>
+      <c r="T45" t="n">
         <v>3</v>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>A. Italiano</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
-        <v>1</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>20/02/2023 00:41</t>
-        </is>
-      </c>
-      <c r="L45" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>28/02/2023 00:28</t>
-        </is>
-      </c>
-      <c r="N45" t="n">
-        <v>3.62</v>
-      </c>
-      <c r="O45" t="inlineStr">
-        <is>
-          <t>20/02/2023 00:41</t>
-        </is>
-      </c>
-      <c r="P45" t="n">
-        <v>3.73</v>
-      </c>
-      <c r="Q45" t="inlineStr">
-        <is>
-          <t>28/02/2023 00:29</t>
-        </is>
-      </c>
-      <c r="R45" t="n">
-        <v>4.48</v>
-      </c>
-      <c r="S45" t="inlineStr">
-        <is>
-          <t>20/02/2023 00:41</t>
-        </is>
-      </c>
-      <c r="T45" t="n">
-        <v>4.99</v>
-      </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>28/02/2023 00:29</t>
+          <t>28/02/2023 00:11</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/chile/primera-division/everton-a-italiano/EifizXV3/</t>
+          <t>https://www.betexplorer.com/football/chile/primera-division/copiapo-o-higgins/08d3XUFM/</t>
         </is>
       </c>
     </row>
@@ -4621,71 +4621,71 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Copiapo</t>
+          <t>Everton</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>O'Higgins</t>
+          <t>A. Italiano</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J46" t="n">
-        <v>3.21</v>
+        <v>1.87</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>20/02/2023 16:42</t>
+          <t>20/02/2023 00:41</t>
         </is>
       </c>
       <c r="L46" t="n">
-        <v>2.51</v>
+        <v>1.76</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>28/02/2023 00:05</t>
+          <t>28/02/2023 00:28</t>
         </is>
       </c>
       <c r="N46" t="n">
-        <v>3.48</v>
+        <v>3.62</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>20/02/2023 16:42</t>
+          <t>20/02/2023 00:41</t>
         </is>
       </c>
       <c r="P46" t="n">
-        <v>3.32</v>
+        <v>3.73</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>28/02/2023 00:11</t>
+          <t>28/02/2023 00:29</t>
         </is>
       </c>
       <c r="R46" t="n">
-        <v>2.16</v>
+        <v>4.48</v>
       </c>
       <c r="S46" t="inlineStr">
         <is>
-          <t>20/02/2023 16:42</t>
+          <t>20/02/2023 00:41</t>
         </is>
       </c>
       <c r="T46" t="n">
-        <v>3</v>
+        <v>4.99</v>
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>28/02/2023 00:11</t>
+          <t>28/02/2023 00:29</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/chile/primera-division/copiapo-o-higgins/08d3XUFM/</t>
+          <t>https://www.betexplorer.com/football/chile/primera-division/everton-a-italiano/EifizXV3/</t>
         </is>
       </c>
     </row>
@@ -6185,22 +6185,22 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Cobresal</t>
+          <t>O'Higgins</t>
         </is>
       </c>
       <c r="G63" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Colo Colo</t>
+          <t>Coquimbo</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J63" t="n">
-        <v>2.99</v>
+        <v>2.04</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -6208,7 +6208,7 @@
         </is>
       </c>
       <c r="L63" t="n">
-        <v>3.25</v>
+        <v>2.18</v>
       </c>
       <c r="M63" t="inlineStr">
         <is>
@@ -6216,7 +6216,7 @@
         </is>
       </c>
       <c r="N63" t="n">
-        <v>3.36</v>
+        <v>3.53</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
@@ -6224,15 +6224,15 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>3.43</v>
+        <v>3.42</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>18/03/2023 21:46</t>
+          <t>18/03/2023 21:57</t>
         </is>
       </c>
       <c r="R63" t="n">
-        <v>2.43</v>
+        <v>3.47</v>
       </c>
       <c r="S63" t="inlineStr">
         <is>
@@ -6240,7 +6240,7 @@
         </is>
       </c>
       <c r="T63" t="n">
-        <v>2.31</v>
+        <v>3.55</v>
       </c>
       <c r="U63" t="inlineStr">
         <is>
@@ -6249,7 +6249,7 @@
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/chile/primera-division/cobresal-colo-colo/KWiB0Tq9/</t>
+          <t>https://www.betexplorer.com/football/chile/primera-division/o-higgins-coquimbo/ALpOcRTR/</t>
         </is>
       </c>
     </row>
@@ -6277,22 +6277,22 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>O'Higgins</t>
+          <t>Cobresal</t>
         </is>
       </c>
       <c r="G64" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Coquimbo</t>
+          <t>Colo Colo</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J64" t="n">
-        <v>2.04</v>
+        <v>2.99</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -6300,7 +6300,7 @@
         </is>
       </c>
       <c r="L64" t="n">
-        <v>2.18</v>
+        <v>3.25</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
@@ -6308,7 +6308,7 @@
         </is>
       </c>
       <c r="N64" t="n">
-        <v>3.53</v>
+        <v>3.36</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
@@ -6316,32 +6316,32 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>3.42</v>
+        <v>3.43</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
+          <t>18/03/2023 21:46</t>
+        </is>
+      </c>
+      <c r="R64" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="S64" t="inlineStr">
+        <is>
+          <t>16/03/2023 08:42</t>
+        </is>
+      </c>
+      <c r="T64" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="U64" t="inlineStr">
+        <is>
           <t>18/03/2023 21:57</t>
         </is>
       </c>
-      <c r="R64" t="n">
-        <v>3.47</v>
-      </c>
-      <c r="S64" t="inlineStr">
-        <is>
-          <t>16/03/2023 08:42</t>
-        </is>
-      </c>
-      <c r="T64" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="U64" t="inlineStr">
-        <is>
-          <t>18/03/2023 21:57</t>
-        </is>
-      </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/chile/primera-division/o-higgins-coquimbo/ALpOcRTR/</t>
+          <t>https://www.betexplorer.com/football/chile/primera-division/cobresal-colo-colo/KWiB0Tq9/</t>
         </is>
       </c>
     </row>
@@ -6553,71 +6553,71 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>U. Espanola</t>
+          <t>Magallanes</t>
         </is>
       </c>
       <c r="G67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Palestino</t>
+          <t>U. Catolica</t>
         </is>
       </c>
       <c r="I67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J67" t="n">
-        <v>2.8</v>
+        <v>2.83</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>13/03/2023 22:12</t>
+          <t>16/03/2023 03:12</t>
         </is>
       </c>
       <c r="L67" t="n">
-        <v>3.3</v>
+        <v>3.48</v>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>20/03/2023 00:23</t>
+          <t>20/03/2023 00:27</t>
         </is>
       </c>
       <c r="N67" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>13/03/2023 22:12</t>
+          <t>16/03/2023 03:12</t>
         </is>
       </c>
       <c r="P67" t="n">
-        <v>3.56</v>
+        <v>3.64</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>20/03/2023 00:23</t>
+          <t>20/03/2023 00:27</t>
         </is>
       </c>
       <c r="R67" t="n">
-        <v>2.45</v>
+        <v>2.48</v>
       </c>
       <c r="S67" t="inlineStr">
         <is>
-          <t>13/03/2023 22:12</t>
+          <t>16/03/2023 03:12</t>
         </is>
       </c>
       <c r="T67" t="n">
-        <v>2.22</v>
+        <v>2.12</v>
       </c>
       <c r="U67" t="inlineStr">
         <is>
-          <t>20/03/2023 00:23</t>
+          <t>20/03/2023 00:27</t>
         </is>
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/chile/primera-division/u-espanola-palestino/WWniiP6e/</t>
+          <t>https://www.betexplorer.com/football/chile/primera-division/magallanes-u-catolica/2esGamaF/</t>
         </is>
       </c>
     </row>
@@ -6645,71 +6645,71 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Magallanes</t>
+          <t>U. Espanola</t>
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>U. Catolica</t>
+          <t>Palestino</t>
         </is>
       </c>
       <c r="I68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J68" t="n">
-        <v>2.83</v>
+        <v>2.8</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>16/03/2023 03:12</t>
+          <t>13/03/2023 22:12</t>
         </is>
       </c>
       <c r="L68" t="n">
-        <v>3.48</v>
+        <v>3.3</v>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>20/03/2023 00:27</t>
+          <t>20/03/2023 00:23</t>
         </is>
       </c>
       <c r="N68" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>16/03/2023 03:12</t>
+          <t>13/03/2023 22:12</t>
         </is>
       </c>
       <c r="P68" t="n">
-        <v>3.64</v>
+        <v>3.56</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>20/03/2023 00:27</t>
+          <t>20/03/2023 00:23</t>
         </is>
       </c>
       <c r="R68" t="n">
-        <v>2.48</v>
+        <v>2.45</v>
       </c>
       <c r="S68" t="inlineStr">
         <is>
-          <t>16/03/2023 03:12</t>
+          <t>13/03/2023 22:12</t>
         </is>
       </c>
       <c r="T68" t="n">
-        <v>2.12</v>
+        <v>2.22</v>
       </c>
       <c r="U68" t="inlineStr">
         <is>
-          <t>20/03/2023 00:27</t>
+          <t>20/03/2023 00:23</t>
         </is>
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/chile/primera-division/magallanes-u-catolica/2esGamaF/</t>
+          <t>https://www.betexplorer.com/football/chile/primera-division/u-espanola-palestino/WWniiP6e/</t>
         </is>
       </c>
     </row>
@@ -9221,71 +9221,71 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>U. Espanola</t>
+          <t>Nublense</t>
         </is>
       </c>
       <c r="G96" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Union La Calera</t>
+          <t>Copiapo</t>
         </is>
       </c>
       <c r="I96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J96" t="n">
-        <v>2.46</v>
+        <v>1.83</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>01/05/2023 00:12</t>
+          <t>03/05/2023 00:12</t>
         </is>
       </c>
       <c r="L96" t="n">
-        <v>2.59</v>
+        <v>1.92</v>
       </c>
       <c r="M96" t="inlineStr">
         <is>
+          <t>09/05/2023 23:59</t>
+        </is>
+      </c>
+      <c r="N96" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>03/05/2023 00:12</t>
+        </is>
+      </c>
+      <c r="P96" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="Q96" t="inlineStr">
+        <is>
           <t>09/05/2023 23:58</t>
         </is>
       </c>
-      <c r="N96" t="n">
-        <v>3.26</v>
-      </c>
-      <c r="O96" t="inlineStr">
-        <is>
-          <t>01/05/2023 00:12</t>
-        </is>
-      </c>
-      <c r="P96" t="n">
-        <v>3.32</v>
-      </c>
-      <c r="Q96" t="inlineStr">
-        <is>
-          <t>09/05/2023 23:58</t>
-        </is>
-      </c>
       <c r="R96" t="n">
-        <v>2.88</v>
+        <v>3.97</v>
       </c>
       <c r="S96" t="inlineStr">
         <is>
-          <t>01/05/2023 00:12</t>
+          <t>03/05/2023 00:12</t>
         </is>
       </c>
       <c r="T96" t="n">
-        <v>2.9</v>
+        <v>4.26</v>
       </c>
       <c r="U96" t="inlineStr">
         <is>
-          <t>09/05/2023 23:58</t>
+          <t>09/05/2023 23:59</t>
         </is>
       </c>
       <c r="V96" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/chile/primera-division/u-espanola-union-la-calera/ANNl21xB/</t>
+          <t>https://www.betexplorer.com/football/chile/primera-division/nublense-copiapo/WWOp3sN4/</t>
         </is>
       </c>
     </row>
@@ -9313,46 +9313,46 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Nublense</t>
+          <t>U. Espanola</t>
         </is>
       </c>
       <c r="G97" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Copiapo</t>
+          <t>Union La Calera</t>
         </is>
       </c>
       <c r="I97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J97" t="n">
-        <v>1.83</v>
+        <v>2.46</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>03/05/2023 00:12</t>
+          <t>01/05/2023 00:12</t>
         </is>
       </c>
       <c r="L97" t="n">
-        <v>1.92</v>
+        <v>2.59</v>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>09/05/2023 23:59</t>
+          <t>09/05/2023 23:58</t>
         </is>
       </c>
       <c r="N97" t="n">
-        <v>3.76</v>
+        <v>3.26</v>
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>03/05/2023 00:12</t>
+          <t>01/05/2023 00:12</t>
         </is>
       </c>
       <c r="P97" t="n">
-        <v>3.59</v>
+        <v>3.32</v>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
@@ -9360,24 +9360,24 @@
         </is>
       </c>
       <c r="R97" t="n">
-        <v>3.97</v>
+        <v>2.88</v>
       </c>
       <c r="S97" t="inlineStr">
         <is>
-          <t>03/05/2023 00:12</t>
+          <t>01/05/2023 00:12</t>
         </is>
       </c>
       <c r="T97" t="n">
-        <v>4.26</v>
+        <v>2.9</v>
       </c>
       <c r="U97" t="inlineStr">
         <is>
-          <t>09/05/2023 23:59</t>
+          <t>09/05/2023 23:58</t>
         </is>
       </c>
       <c r="V97" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/chile/primera-division/nublense-copiapo/WWOp3sN4/</t>
+          <t>https://www.betexplorer.com/football/chile/primera-division/u-espanola-union-la-calera/ANNl21xB/</t>
         </is>
       </c>
     </row>
@@ -17290,6 +17290,466 @@
       <c r="V183" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/chile/primera-division/coquimbo-o-higgins/2odx4xQl/</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>chile</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>primera-division</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E184" s="2" t="n">
+        <v>45192.72916666666</v>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>Palestino</t>
+        </is>
+      </c>
+      <c r="G184" t="n">
+        <v>2</v>
+      </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>U. Espanola</t>
+        </is>
+      </c>
+      <c r="I184" t="n">
+        <v>1</v>
+      </c>
+      <c r="J184" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>15/09/2023 16:42</t>
+        </is>
+      </c>
+      <c r="L184" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="M184" t="inlineStr">
+        <is>
+          <t>23/09/2023 17:29</t>
+        </is>
+      </c>
+      <c r="N184" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="O184" t="inlineStr">
+        <is>
+          <t>15/09/2023 16:42</t>
+        </is>
+      </c>
+      <c r="P184" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="Q184" t="inlineStr">
+        <is>
+          <t>23/09/2023 17:29</t>
+        </is>
+      </c>
+      <c r="R184" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="S184" t="inlineStr">
+        <is>
+          <t>15/09/2023 16:42</t>
+        </is>
+      </c>
+      <c r="T184" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="U184" t="inlineStr">
+        <is>
+          <t>23/09/2023 17:29</t>
+        </is>
+      </c>
+      <c r="V184" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/chile/primera-division/palestino-u-espanola/r1F59b2R/</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>chile</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>primera-division</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E185" s="2" t="n">
+        <v>45192.83333333334</v>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>Curico Unido</t>
+        </is>
+      </c>
+      <c r="G185" t="n">
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>Nublense</t>
+        </is>
+      </c>
+      <c r="I185" t="n">
+        <v>3</v>
+      </c>
+      <c r="J185" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>15/09/2023 19:42</t>
+        </is>
+      </c>
+      <c r="L185" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="M185" t="inlineStr">
+        <is>
+          <t>23/09/2023 19:58</t>
+        </is>
+      </c>
+      <c r="N185" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="O185" t="inlineStr">
+        <is>
+          <t>15/09/2023 19:42</t>
+        </is>
+      </c>
+      <c r="P185" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="Q185" t="inlineStr">
+        <is>
+          <t>23/09/2023 19:58</t>
+        </is>
+      </c>
+      <c r="R185" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="S185" t="inlineStr">
+        <is>
+          <t>15/09/2023 19:42</t>
+        </is>
+      </c>
+      <c r="T185" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="U185" t="inlineStr">
+        <is>
+          <t>23/09/2023 19:58</t>
+        </is>
+      </c>
+      <c r="V185" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/chile/primera-division/curico-unido-nublense/txet3due/</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>chile</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>primera-division</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E186" s="2" t="n">
+        <v>45192.9375</v>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>Colo Colo</t>
+        </is>
+      </c>
+      <c r="G186" t="n">
+        <v>6</v>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>Cobresal</t>
+        </is>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>15/09/2023 21:42</t>
+        </is>
+      </c>
+      <c r="L186" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="M186" t="inlineStr">
+        <is>
+          <t>23/09/2023 22:27</t>
+        </is>
+      </c>
+      <c r="N186" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="O186" t="inlineStr">
+        <is>
+          <t>15/09/2023 21:42</t>
+        </is>
+      </c>
+      <c r="P186" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="Q186" t="inlineStr">
+        <is>
+          <t>23/09/2023 22:27</t>
+        </is>
+      </c>
+      <c r="R186" t="n">
+        <v>4.87</v>
+      </c>
+      <c r="S186" t="inlineStr">
+        <is>
+          <t>15/09/2023 21:42</t>
+        </is>
+      </c>
+      <c r="T186" t="n">
+        <v>4.77</v>
+      </c>
+      <c r="U186" t="inlineStr">
+        <is>
+          <t>23/09/2023 22:27</t>
+        </is>
+      </c>
+      <c r="V186" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/chile/primera-division/colo-colo-cobresal/jgcbBKXE/</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>chile</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>primera-division</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E187" s="2" t="n">
+        <v>45193.04166666666</v>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>Everton</t>
+        </is>
+      </c>
+      <c r="G187" t="n">
+        <v>1</v>
+      </c>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>Huachipato</t>
+        </is>
+      </c>
+      <c r="I187" t="n">
+        <v>2</v>
+      </c>
+      <c r="J187" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>16/09/2023 00:43</t>
+        </is>
+      </c>
+      <c r="L187" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="M187" t="inlineStr">
+        <is>
+          <t>24/09/2023 00:57</t>
+        </is>
+      </c>
+      <c r="N187" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="O187" t="inlineStr">
+        <is>
+          <t>16/09/2023 00:43</t>
+        </is>
+      </c>
+      <c r="P187" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="Q187" t="inlineStr">
+        <is>
+          <t>24/09/2023 00:57</t>
+        </is>
+      </c>
+      <c r="R187" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="S187" t="inlineStr">
+        <is>
+          <t>16/09/2023 00:43</t>
+        </is>
+      </c>
+      <c r="T187" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="U187" t="inlineStr">
+        <is>
+          <t>24/09/2023 00:57</t>
+        </is>
+      </c>
+      <c r="V187" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/chile/primera-division/everton-huachipato/zafp2Gf1/</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>chile</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>primera-division</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E188" s="2" t="n">
+        <v>45193.83333333334</v>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>Copiapo</t>
+        </is>
+      </c>
+      <c r="G188" t="n">
+        <v>3</v>
+      </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>U. De Chile</t>
+        </is>
+      </c>
+      <c r="I188" t="n">
+        <v>1</v>
+      </c>
+      <c r="J188" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>16/09/2023 19:43</t>
+        </is>
+      </c>
+      <c r="L188" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="M188" t="inlineStr">
+        <is>
+          <t>24/09/2023 19:58</t>
+        </is>
+      </c>
+      <c r="N188" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="O188" t="inlineStr">
+        <is>
+          <t>16/09/2023 19:43</t>
+        </is>
+      </c>
+      <c r="P188" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="Q188" t="inlineStr">
+        <is>
+          <t>24/09/2023 19:58</t>
+        </is>
+      </c>
+      <c r="R188" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="S188" t="inlineStr">
+        <is>
+          <t>16/09/2023 19:43</t>
+        </is>
+      </c>
+      <c r="T188" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="U188" t="inlineStr">
+        <is>
+          <t>24/09/2023 19:58</t>
+        </is>
+      </c>
+      <c r="V188" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/chile/primera-division/copiapo-u-de-chile/8U7gC0I8/</t>
         </is>
       </c>
     </row>

--- a/2023/chile_primera-division_2023.xlsx
+++ b/2023/chile_primera-division_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V188"/>
+  <dimension ref="A1:V190"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4529,71 +4529,71 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Copiapo</t>
+          <t>Everton</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>O'Higgins</t>
+          <t>A. Italiano</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J45" t="n">
-        <v>3.21</v>
+        <v>1.87</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>20/02/2023 16:42</t>
+          <t>20/02/2023 00:41</t>
         </is>
       </c>
       <c r="L45" t="n">
-        <v>2.51</v>
+        <v>1.76</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>28/02/2023 00:05</t>
+          <t>28/02/2023 00:28</t>
         </is>
       </c>
       <c r="N45" t="n">
-        <v>3.48</v>
+        <v>3.62</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>20/02/2023 16:42</t>
+          <t>20/02/2023 00:41</t>
         </is>
       </c>
       <c r="P45" t="n">
-        <v>3.32</v>
+        <v>3.73</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>28/02/2023 00:11</t>
+          <t>28/02/2023 00:29</t>
         </is>
       </c>
       <c r="R45" t="n">
-        <v>2.16</v>
+        <v>4.48</v>
       </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t>20/02/2023 16:42</t>
+          <t>20/02/2023 00:41</t>
         </is>
       </c>
       <c r="T45" t="n">
-        <v>3</v>
+        <v>4.99</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>28/02/2023 00:11</t>
+          <t>28/02/2023 00:29</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/chile/primera-division/copiapo-o-higgins/08d3XUFM/</t>
+          <t>https://www.betexplorer.com/football/chile/primera-division/everton-a-italiano/EifizXV3/</t>
         </is>
       </c>
     </row>
@@ -4621,71 +4621,71 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Everton</t>
+          <t>Copiapo</t>
         </is>
       </c>
       <c r="G46" t="n">
+        <v>2</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>O'Higgins</t>
+        </is>
+      </c>
+      <c r="I46" t="n">
+        <v>2</v>
+      </c>
+      <c r="J46" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>20/02/2023 16:42</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>28/02/2023 00:05</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>20/02/2023 16:42</t>
+        </is>
+      </c>
+      <c r="P46" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>28/02/2023 00:11</t>
+        </is>
+      </c>
+      <c r="R46" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>20/02/2023 16:42</t>
+        </is>
+      </c>
+      <c r="T46" t="n">
         <v>3</v>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>A. Italiano</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
-        <v>1</v>
-      </c>
-      <c r="J46" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>20/02/2023 00:41</t>
-        </is>
-      </c>
-      <c r="L46" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>28/02/2023 00:28</t>
-        </is>
-      </c>
-      <c r="N46" t="n">
-        <v>3.62</v>
-      </c>
-      <c r="O46" t="inlineStr">
-        <is>
-          <t>20/02/2023 00:41</t>
-        </is>
-      </c>
-      <c r="P46" t="n">
-        <v>3.73</v>
-      </c>
-      <c r="Q46" t="inlineStr">
-        <is>
-          <t>28/02/2023 00:29</t>
-        </is>
-      </c>
-      <c r="R46" t="n">
-        <v>4.48</v>
-      </c>
-      <c r="S46" t="inlineStr">
-        <is>
-          <t>20/02/2023 00:41</t>
-        </is>
-      </c>
-      <c r="T46" t="n">
-        <v>4.99</v>
-      </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>28/02/2023 00:29</t>
+          <t>28/02/2023 00:11</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/chile/primera-division/everton-a-italiano/EifizXV3/</t>
+          <t>https://www.betexplorer.com/football/chile/primera-division/copiapo-o-higgins/08d3XUFM/</t>
         </is>
       </c>
     </row>
@@ -6553,71 +6553,71 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Magallanes</t>
+          <t>U. Espanola</t>
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>U. Catolica</t>
+          <t>Palestino</t>
         </is>
       </c>
       <c r="I67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J67" t="n">
-        <v>2.83</v>
+        <v>2.8</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>16/03/2023 03:12</t>
+          <t>13/03/2023 22:12</t>
         </is>
       </c>
       <c r="L67" t="n">
-        <v>3.48</v>
+        <v>3.3</v>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>20/03/2023 00:27</t>
+          <t>20/03/2023 00:23</t>
         </is>
       </c>
       <c r="N67" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>16/03/2023 03:12</t>
+          <t>13/03/2023 22:12</t>
         </is>
       </c>
       <c r="P67" t="n">
-        <v>3.64</v>
+        <v>3.56</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>20/03/2023 00:27</t>
+          <t>20/03/2023 00:23</t>
         </is>
       </c>
       <c r="R67" t="n">
-        <v>2.48</v>
+        <v>2.45</v>
       </c>
       <c r="S67" t="inlineStr">
         <is>
-          <t>16/03/2023 03:12</t>
+          <t>13/03/2023 22:12</t>
         </is>
       </c>
       <c r="T67" t="n">
-        <v>2.12</v>
+        <v>2.22</v>
       </c>
       <c r="U67" t="inlineStr">
         <is>
-          <t>20/03/2023 00:27</t>
+          <t>20/03/2023 00:23</t>
         </is>
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/chile/primera-division/magallanes-u-catolica/2esGamaF/</t>
+          <t>https://www.betexplorer.com/football/chile/primera-division/u-espanola-palestino/WWniiP6e/</t>
         </is>
       </c>
     </row>
@@ -6645,71 +6645,71 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>U. Espanola</t>
+          <t>Magallanes</t>
         </is>
       </c>
       <c r="G68" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Palestino</t>
+          <t>U. Catolica</t>
         </is>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J68" t="n">
-        <v>2.8</v>
+        <v>2.83</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>13/03/2023 22:12</t>
+          <t>16/03/2023 03:12</t>
         </is>
       </c>
       <c r="L68" t="n">
-        <v>3.3</v>
+        <v>3.48</v>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>20/03/2023 00:23</t>
+          <t>20/03/2023 00:27</t>
         </is>
       </c>
       <c r="N68" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>13/03/2023 22:12</t>
+          <t>16/03/2023 03:12</t>
         </is>
       </c>
       <c r="P68" t="n">
-        <v>3.56</v>
+        <v>3.64</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>20/03/2023 00:23</t>
+          <t>20/03/2023 00:27</t>
         </is>
       </c>
       <c r="R68" t="n">
-        <v>2.45</v>
+        <v>2.48</v>
       </c>
       <c r="S68" t="inlineStr">
         <is>
-          <t>13/03/2023 22:12</t>
+          <t>16/03/2023 03:12</t>
         </is>
       </c>
       <c r="T68" t="n">
-        <v>2.22</v>
+        <v>2.12</v>
       </c>
       <c r="U68" t="inlineStr">
         <is>
-          <t>20/03/2023 00:23</t>
+          <t>20/03/2023 00:27</t>
         </is>
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/chile/primera-division/u-espanola-palestino/WWniiP6e/</t>
+          <t>https://www.betexplorer.com/football/chile/primera-division/magallanes-u-catolica/2esGamaF/</t>
         </is>
       </c>
     </row>
@@ -9221,46 +9221,46 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Nublense</t>
+          <t>U. Espanola</t>
         </is>
       </c>
       <c r="G96" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Copiapo</t>
+          <t>Union La Calera</t>
         </is>
       </c>
       <c r="I96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J96" t="n">
-        <v>1.83</v>
+        <v>2.46</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>03/05/2023 00:12</t>
+          <t>01/05/2023 00:12</t>
         </is>
       </c>
       <c r="L96" t="n">
-        <v>1.92</v>
+        <v>2.59</v>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>09/05/2023 23:59</t>
+          <t>09/05/2023 23:58</t>
         </is>
       </c>
       <c r="N96" t="n">
-        <v>3.76</v>
+        <v>3.26</v>
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>03/05/2023 00:12</t>
+          <t>01/05/2023 00:12</t>
         </is>
       </c>
       <c r="P96" t="n">
-        <v>3.59</v>
+        <v>3.32</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
@@ -9268,24 +9268,24 @@
         </is>
       </c>
       <c r="R96" t="n">
-        <v>3.97</v>
+        <v>2.88</v>
       </c>
       <c r="S96" t="inlineStr">
         <is>
-          <t>03/05/2023 00:12</t>
+          <t>01/05/2023 00:12</t>
         </is>
       </c>
       <c r="T96" t="n">
-        <v>4.26</v>
+        <v>2.9</v>
       </c>
       <c r="U96" t="inlineStr">
         <is>
-          <t>09/05/2023 23:59</t>
+          <t>09/05/2023 23:58</t>
         </is>
       </c>
       <c r="V96" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/chile/primera-division/nublense-copiapo/WWOp3sN4/</t>
+          <t>https://www.betexplorer.com/football/chile/primera-division/u-espanola-union-la-calera/ANNl21xB/</t>
         </is>
       </c>
     </row>
@@ -9313,71 +9313,71 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>U. Espanola</t>
+          <t>Nublense</t>
         </is>
       </c>
       <c r="G97" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Union La Calera</t>
+          <t>Copiapo</t>
         </is>
       </c>
       <c r="I97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J97" t="n">
-        <v>2.46</v>
+        <v>1.83</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>01/05/2023 00:12</t>
+          <t>03/05/2023 00:12</t>
         </is>
       </c>
       <c r="L97" t="n">
-        <v>2.59</v>
+        <v>1.92</v>
       </c>
       <c r="M97" t="inlineStr">
         <is>
+          <t>09/05/2023 23:59</t>
+        </is>
+      </c>
+      <c r="N97" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>03/05/2023 00:12</t>
+        </is>
+      </c>
+      <c r="P97" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="Q97" t="inlineStr">
+        <is>
           <t>09/05/2023 23:58</t>
         </is>
       </c>
-      <c r="N97" t="n">
-        <v>3.26</v>
-      </c>
-      <c r="O97" t="inlineStr">
-        <is>
-          <t>01/05/2023 00:12</t>
-        </is>
-      </c>
-      <c r="P97" t="n">
-        <v>3.32</v>
-      </c>
-      <c r="Q97" t="inlineStr">
-        <is>
-          <t>09/05/2023 23:58</t>
-        </is>
-      </c>
       <c r="R97" t="n">
-        <v>2.88</v>
+        <v>3.97</v>
       </c>
       <c r="S97" t="inlineStr">
         <is>
-          <t>01/05/2023 00:12</t>
+          <t>03/05/2023 00:12</t>
         </is>
       </c>
       <c r="T97" t="n">
-        <v>2.9</v>
+        <v>4.26</v>
       </c>
       <c r="U97" t="inlineStr">
         <is>
-          <t>09/05/2023 23:58</t>
+          <t>09/05/2023 23:59</t>
         </is>
       </c>
       <c r="V97" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/chile/primera-division/u-espanola-union-la-calera/ANNl21xB/</t>
+          <t>https://www.betexplorer.com/football/chile/primera-division/nublense-copiapo/WWOp3sN4/</t>
         </is>
       </c>
     </row>
@@ -17750,6 +17750,190 @@
       <c r="V188" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/chile/primera-division/copiapo-u-de-chile/8U7gC0I8/</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>chile</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>primera-division</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E189" s="2" t="n">
+        <v>45193.9375</v>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>U. Catolica</t>
+        </is>
+      </c>
+      <c r="G189" t="n">
+        <v>1</v>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>Magallanes</t>
+        </is>
+      </c>
+      <c r="I189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>16/09/2023 21:42</t>
+        </is>
+      </c>
+      <c r="L189" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="M189" t="inlineStr">
+        <is>
+          <t>24/09/2023 22:27</t>
+        </is>
+      </c>
+      <c r="N189" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="O189" t="inlineStr">
+        <is>
+          <t>16/09/2023 21:42</t>
+        </is>
+      </c>
+      <c r="P189" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="Q189" t="inlineStr">
+        <is>
+          <t>24/09/2023 22:30</t>
+        </is>
+      </c>
+      <c r="R189" t="n">
+        <v>4.34</v>
+      </c>
+      <c r="S189" t="inlineStr">
+        <is>
+          <t>16/09/2023 21:42</t>
+        </is>
+      </c>
+      <c r="T189" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="U189" t="inlineStr">
+        <is>
+          <t>24/09/2023 22:30</t>
+        </is>
+      </c>
+      <c r="V189" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/chile/primera-division/u-catolica-magallanes/pA1X4IAr/</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>chile</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>primera-division</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E190" s="2" t="n">
+        <v>45194.04166666666</v>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>A. Italiano</t>
+        </is>
+      </c>
+      <c r="G190" t="n">
+        <v>2</v>
+      </c>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>Union La Calera</t>
+        </is>
+      </c>
+      <c r="I190" t="n">
+        <v>1</v>
+      </c>
+      <c r="J190" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>17/09/2023 00:44</t>
+        </is>
+      </c>
+      <c r="L190" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="M190" t="inlineStr">
+        <is>
+          <t>25/09/2023 00:53</t>
+        </is>
+      </c>
+      <c r="N190" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="O190" t="inlineStr">
+        <is>
+          <t>17/09/2023 00:44</t>
+        </is>
+      </c>
+      <c r="P190" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="Q190" t="inlineStr">
+        <is>
+          <t>25/09/2023 00:53</t>
+        </is>
+      </c>
+      <c r="R190" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="S190" t="inlineStr">
+        <is>
+          <t>17/09/2023 00:44</t>
+        </is>
+      </c>
+      <c r="T190" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="U190" t="inlineStr">
+        <is>
+          <t>25/09/2023 00:53</t>
+        </is>
+      </c>
+      <c r="V190" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/chile/primera-division/a-italiano-union-la-calera/lvG1AvmL/</t>
         </is>
       </c>
     </row>
